--- a/miwei.xlsx
+++ b/miwei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -39,10 +62,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,107 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +162,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +185,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,25 +317,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,145 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +376,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,54 +435,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -464,7 +448,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,153 +467,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,6 +742,590 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.0389911284397969"/>
+          <c:y val="0.0475111201077482"/>
+          <c:w val="0.947288076789638"/>
+          <c:h val="0.874003641513251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-288.554928412381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-291.605921759902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-294.755785468069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-298.009977541075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-301.374387339456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-304.855380424846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-308.459849237818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-312.195270527231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-316.069770620507</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-320.09219983224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-324.272217562761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-328.620389950388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-333.148302326385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-337.868689199743</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-342.79558509553</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-347.94450031961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-353.332626668787</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-358.979079308869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-364.905182584413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-371.134809512603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-377.694787300249</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-384.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-391.93090083481</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-399.680383488716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-407.908508224002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-416.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-426.014322842305</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-436.020720196947</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-446.76705160877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-458.349248514106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-470.881609348011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-484.501583111509</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-499.376169438922</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-515.710623129397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-533.760512683624</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-553.848775621711</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-576.390417704235</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-601.929265428846</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-631.194403097803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-665.190105237739</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-705.345615858598</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-753.778361444409</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-813.788458771159</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-890.870806374748</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-995.037190209989</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1147.07866935281</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1400.28008402801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1961.16135138184</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66166070"/>
+        <c:axId val="786310278"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66166070"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1250"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786310278"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="786310278"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66166070"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.0404533364172545"/>
           <c:y val="0.0492615820352013"/>
           <c:w val="0.947288076789638"/>
@@ -1093,6 +1670,1500 @@
                   <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E:$E</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G:$G</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1566.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1564.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1562.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1560.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1535.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1533.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1531.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1529.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1530.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1545.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1566.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1563.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1558.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1555.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1605.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1602.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1595.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1592.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2184.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2171.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2164.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2157.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2221.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2214</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2206.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2199.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2192.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3241.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>981.2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>974.4</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>967.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>960.8</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>946.8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>939.6</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>932.4</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>925.2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>904.8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>891.6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>878.4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>865.2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>841.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>831.2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>820.8</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>810.4</c:v>
+                </c:pt>
+                <c:pt idx="240">
                   <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
@@ -1238,592 +3309,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15"/>
-        <c:minorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0389911284397969"/>
-          <c:y val="0.0475111201077482"/>
-          <c:w val="0.947288076789638"/>
-          <c:h val="0.874003641513251"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1175</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1225</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C:$C</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>-288.554928412381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-291.605921759902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-294.755785468069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-298.009977541075</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-301.374387339456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-304.855380424846</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-308.459849237818</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-312.195270527231</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-316.069770620507</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-320.09219983224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-324.272217562761</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-328.620389950388</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-333.148302326385</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-337.868689199743</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-342.79558509553</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-347.94450031961</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-353.332626668787</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-358.979079308869</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-364.905182584413</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-371.134809512603</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-377.694787300249</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-384.615384615385</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-391.93090083481</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-399.680383488716</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-407.908508224002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-416.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-426.014322842305</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-436.020720196947</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-446.76705160877</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-458.349248514106</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-470.881609348011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-484.501583111509</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-499.376169438922</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-515.710623129397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-533.760512683624</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-553.848775621711</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-576.390417704235</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-601.929265428846</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-631.194403097803</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-665.190105237739</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-705.345615858598</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-753.778361444409</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-813.788458771159</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-890.870806374748</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-995.037190209989</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-1147.07866935281</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-1400.28008402801</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-1961.16135138184</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="66166070"/>
-        <c:axId val="786310278"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="66166070"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1250"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="786310278"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="25"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="786310278"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1600"/>
-          <c:min val="800"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66166070"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
         <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
@@ -2985,24 +4470,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357505</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>48895</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>601345</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>521335</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9846310" y="220345"/>
-        <a:ext cx="9845040" cy="6657340"/>
+        <a:off x="9653905" y="7982585"/>
+        <a:ext cx="11329035" cy="6545580"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3012,31 +4497,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>59055</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>115570</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9877425" y="7457440"/>
-        <a:ext cx="11329035" cy="6545580"/>
+        <a:off x="22800310" y="403860"/>
+        <a:ext cx="9174480" cy="6089650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3053,7 +4543,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3332,18 +4822,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="43.525" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>50</v>
       </c>
@@ -3354,8 +4844,15 @@
         <f>SQRT(1/(1251-A1))*-1*10000</f>
         <v>-288.554928412381</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <f>(E1-A1)*(B2-B1)/(A2-A1)+B1</f>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>75</v>
       </c>
@@ -3366,8 +4863,15 @@
         <f t="shared" ref="C2:C49" si="0">SQRT(1/(1251-A2))*-1*10000</f>
         <v>-291.605921759902</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <f>(E2-A1)*(B2-B1)/(A2-A1)+B1</f>
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>100</v>
       </c>
@@ -3378,8 +4882,15 @@
         <f t="shared" si="0"/>
         <v>-294.755785468069</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <f>(E3-A1)*(B2-B1)/(A2-A1)+B1</f>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>125</v>
       </c>
@@ -3390,8 +4901,15 @@
         <f t="shared" si="0"/>
         <v>-298.009977541075</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <f>(E4-A1)*(B2-B1)/(A2-A1)+B1</f>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>150</v>
       </c>
@@ -3402,8 +4920,15 @@
         <f t="shared" si="0"/>
         <v>-301.374387339456</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <f>(E5-A1)*(B2-B1)/(A2-A1)+B1</f>
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>175</v>
       </c>
@@ -3414,8 +4939,15 @@
         <f t="shared" si="0"/>
         <v>-304.855380424846</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <f>(E6-A2)*(B3-B2)/(A3-A2)+B2</f>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>200</v>
       </c>
@@ -3426,8 +4958,15 @@
         <f t="shared" si="0"/>
         <v>-308.459849237818</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <f>(E7-A2)*(B3-B2)/(A3-A2)+B2</f>
+        <v>1566.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>225</v>
       </c>
@@ -3438,8 +4977,15 @@
         <f t="shared" si="0"/>
         <v>-312.195270527231</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="G8">
+        <f>(E8-A2)*(B3-B2)/(A3-A2)+B2</f>
+        <v>1564.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>250</v>
       </c>
@@ -3450,8 +4996,15 @@
         <f t="shared" si="0"/>
         <v>-316.069770620507</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <f>(E9-A2)*(B3-B2)/(A3-A2)+B2</f>
+        <v>1562.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>275</v>
       </c>
@@ -3462,8 +5015,15 @@
         <f t="shared" si="0"/>
         <v>-320.09219983224</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <f>(E10-A2)*(B3-B2)/(A3-A2)+B2</f>
+        <v>1560.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>300</v>
       </c>
@@ -3474,8 +5034,15 @@
         <f t="shared" si="0"/>
         <v>-324.272217562761</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f>(E11-A3)*(B4-B3)/(A4-A3)+B3</f>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>325</v>
       </c>
@@ -3486,8 +5053,15 @@
         <f t="shared" si="0"/>
         <v>-328.620389950388</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <f>(E12-A3)*(B4-B3)/(A4-A3)+B3</f>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>350</v>
       </c>
@@ -3498,8 +5072,15 @@
         <f t="shared" si="0"/>
         <v>-333.148302326385</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="G13">
+        <f>(E13-A3)*(B4-B3)/(A4-A3)+B3</f>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>375</v>
       </c>
@@ -3510,8 +5091,15 @@
         <f t="shared" si="0"/>
         <v>-337.868689199743</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <f>(E14-A3)*(B4-B3)/(A4-A3)+B3</f>
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>400</v>
       </c>
@@ -3522,8 +5110,15 @@
         <f t="shared" si="0"/>
         <v>-342.79558509553</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="G15">
+        <f>(E15-A3)*(B4-B3)/(A4-A3)+B3</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>425</v>
       </c>
@@ -3534,8 +5129,15 @@
         <f t="shared" si="0"/>
         <v>-347.94450031961</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <v>125</v>
+      </c>
+      <c r="G16">
+        <f>(E16-A4)*(B5-B4)/(A5-A4)+B4</f>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>450</v>
       </c>
@@ -3546,8 +5148,15 @@
         <f t="shared" si="0"/>
         <v>-353.332626668787</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <f>(E17-A4)*(B5-B4)/(A5-A4)+B4</f>
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>475</v>
       </c>
@@ -3558,8 +5167,15 @@
         <f t="shared" si="0"/>
         <v>-358.979079308869</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <v>135</v>
+      </c>
+      <c r="G18">
+        <f>(E18-A4)*(B5-B4)/(A5-A4)+B4</f>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>500</v>
       </c>
@@ -3570,8 +5186,15 @@
         <f t="shared" si="0"/>
         <v>-364.905182584413</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>140</v>
+      </c>
+      <c r="G19">
+        <f>(E19-A4)*(B5-B4)/(A5-A4)+B4</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>525</v>
       </c>
@@ -3582,8 +5205,15 @@
         <f t="shared" si="0"/>
         <v>-371.134809512603</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20">
+        <v>145</v>
+      </c>
+      <c r="G20">
+        <f>(E20-A4)*(B5-B4)/(A5-A4)+B4</f>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>550</v>
       </c>
@@ -3594,8 +5224,15 @@
         <f t="shared" si="0"/>
         <v>-377.694787300249</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <f>(E21-A5)*(B6-B5)/(A6-A5)+B5</f>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>575</v>
       </c>
@@ -3606,8 +5243,15 @@
         <f t="shared" si="0"/>
         <v>-384.615384615385</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>155</v>
+      </c>
+      <c r="G22">
+        <f>(E22-A5)*(B6-B5)/(A6-A5)+B5</f>
+        <v>1535.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>600</v>
       </c>
@@ -3618,8 +5262,15 @@
         <f t="shared" si="0"/>
         <v>-391.93090083481</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <v>160</v>
+      </c>
+      <c r="G23">
+        <f>(E23-A5)*(B6-B5)/(A6-A5)+B5</f>
+        <v>1533.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>625</v>
       </c>
@@ -3630,8 +5281,15 @@
         <f t="shared" si="0"/>
         <v>-399.680383488716</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>165</v>
+      </c>
+      <c r="G24">
+        <f>(E24-A5)*(B6-B5)/(A6-A5)+B5</f>
+        <v>1531.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>650</v>
       </c>
@@ -3642,8 +5300,15 @@
         <f t="shared" si="0"/>
         <v>-407.908508224002</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25">
+        <v>170</v>
+      </c>
+      <c r="G25">
+        <f>(E25-A5)*(B6-B5)/(A6-A5)+B5</f>
+        <v>1529.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>675</v>
       </c>
@@ -3654,8 +5319,15 @@
         <f t="shared" si="0"/>
         <v>-416.666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <v>175</v>
+      </c>
+      <c r="G26">
+        <f>(E26-A6)*(B7-B6)/(A7-A6)+B6</f>
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>700</v>
       </c>
@@ -3666,8 +5338,15 @@
         <f t="shared" si="0"/>
         <v>-426.014322842305</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="G27">
+        <f>(E27-A6)*(B7-B6)/(A7-A6)+B6</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>725</v>
       </c>
@@ -3678,8 +5357,15 @@
         <f t="shared" si="0"/>
         <v>-436.020720196947</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>185</v>
+      </c>
+      <c r="G28">
+        <f>(E28-A6)*(B7-B6)/(A7-A6)+B6</f>
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>750</v>
       </c>
@@ -3690,8 +5376,15 @@
         <f t="shared" si="0"/>
         <v>-446.76705160877</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>190</v>
+      </c>
+      <c r="G29">
+        <f>(E29-A6)*(B7-B6)/(A7-A6)+B6</f>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>775</v>
       </c>
@@ -3702,8 +5395,15 @@
         <f t="shared" si="0"/>
         <v>-458.349248514106</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <v>195</v>
+      </c>
+      <c r="G30">
+        <f>(E30-A6)*(B7-B6)/(A7-A6)+B6</f>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>800</v>
       </c>
@@ -3714,8 +5414,15 @@
         <f t="shared" si="0"/>
         <v>-470.881609348011</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <f>(E31-A7)*(B8-B7)/(A8-A7)+B7</f>
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>825</v>
       </c>
@@ -3726,8 +5433,15 @@
         <f t="shared" si="0"/>
         <v>-484.501583111509</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>205</v>
+      </c>
+      <c r="G32">
+        <f>(E32-A24)*(B25-B24)/(A25-A24)+B24</f>
+        <v>1530.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>850</v>
       </c>
@@ -3738,8 +5452,15 @@
         <f t="shared" si="0"/>
         <v>-499.376169438922</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>210</v>
+      </c>
+      <c r="G33">
+        <f>(E33-A25)*(B26-B25)/(A26-A25)+B25</f>
+        <v>1545.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>875</v>
       </c>
@@ -3750,8 +5471,15 @@
         <f t="shared" si="0"/>
         <v>-515.710623129397</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>215</v>
+      </c>
+      <c r="G34">
+        <f>(E34-A34)*(B35-B34)/(A35-A34)+B34</f>
+        <v>1566.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>900</v>
       </c>
@@ -3762,8 +5490,15 @@
         <f t="shared" si="0"/>
         <v>-533.760512683624</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>220</v>
+      </c>
+      <c r="G35">
+        <f>(E35-A34)*(B35-B34)/(A35-A34)+B34</f>
+        <v>1563.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>925</v>
       </c>
@@ -3774,8 +5509,15 @@
         <f t="shared" si="0"/>
         <v>-553.848775621711</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>225</v>
+      </c>
+      <c r="G36">
+        <f>(E36-A34)*(B35-B34)/(A35-A34)+B34</f>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>950</v>
       </c>
@@ -3786,8 +5528,15 @@
         <f t="shared" si="0"/>
         <v>-576.390417704235</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>230</v>
+      </c>
+      <c r="G37">
+        <f>(E37-A34)*(B35-B34)/(A35-A34)+B34</f>
+        <v>1558.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>975</v>
       </c>
@@ -3798,8 +5547,15 @@
         <f t="shared" si="0"/>
         <v>-601.929265428846</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>235</v>
+      </c>
+      <c r="G38">
+        <f>(E38-A34)*(B35-B34)/(A35-A34)+B34</f>
+        <v>1555.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1000</v>
       </c>
@@ -3810,8 +5566,15 @@
         <f t="shared" si="0"/>
         <v>-631.194403097803</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>240</v>
+      </c>
+      <c r="G39">
+        <f>(E39-A35)*(B36-B35)/(A36-A35)+B35</f>
+        <v>1605.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>1025</v>
       </c>
@@ -3822,8 +5585,15 @@
         <f t="shared" si="0"/>
         <v>-665.190105237739</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>245</v>
+      </c>
+      <c r="G40">
+        <f>(E40-A35)*(B36-B35)/(A36-A35)+B35</f>
+        <v>1602.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>1050</v>
       </c>
@@ -3834,8 +5604,15 @@
         <f t="shared" si="0"/>
         <v>-705.345615858598</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="G41">
+        <f>(E41-A35)*(B36-B35)/(A36-A35)+B35</f>
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>1075</v>
       </c>
@@ -3846,8 +5623,15 @@
         <f t="shared" si="0"/>
         <v>-753.778361444409</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>255</v>
+      </c>
+      <c r="G42">
+        <f>(E42-A35)*(B36-B35)/(A36-A35)+B35</f>
+        <v>1595.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>1100</v>
       </c>
@@ -3858,8 +5642,15 @@
         <f t="shared" si="0"/>
         <v>-813.788458771159</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>260</v>
+      </c>
+      <c r="G43">
+        <f>(E43-A35)*(B36-B35)/(A36-A35)+B35</f>
+        <v>1592.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>1125</v>
       </c>
@@ -3870,8 +5661,15 @@
         <f t="shared" si="0"/>
         <v>-890.870806374748</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>265</v>
+      </c>
+      <c r="G44">
+        <f>(E44-A36)*(B37-B36)/(A37-A36)+B36</f>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>1150</v>
       </c>
@@ -3882,8 +5680,15 @@
         <f t="shared" si="0"/>
         <v>-995.037190209989</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>270</v>
+      </c>
+      <c r="G45">
+        <f>(E45-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>2184.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>1175</v>
       </c>
@@ -3894,8 +5699,15 @@
         <f t="shared" si="0"/>
         <v>-1147.07866935281</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>275</v>
+      </c>
+      <c r="G46">
+        <f>(E46-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>1200</v>
       </c>
@@ -3906,8 +5718,15 @@
         <f t="shared" si="0"/>
         <v>-1400.28008402801</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>280</v>
+      </c>
+      <c r="G47">
+        <f>(E47-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>2171.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>1225</v>
       </c>
@@ -3918,8 +5737,15 @@
         <f t="shared" si="0"/>
         <v>-1961.16135138184</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <v>285</v>
+      </c>
+      <c r="G48">
+        <f>(E48-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>2164.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1250</v>
       </c>
@@ -3929,6 +5755,1741 @@
       <c r="C49">
         <f t="shared" si="0"/>
         <v>-10000</v>
+      </c>
+      <c r="E49">
+        <v>290</v>
+      </c>
+      <c r="G49">
+        <f>(E49-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>2157.6</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50">
+        <v>295</v>
+      </c>
+      <c r="G50">
+        <f>(E50-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>2221.2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51">
+        <v>300</v>
+      </c>
+      <c r="G51">
+        <f>(E51-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52">
+        <v>305</v>
+      </c>
+      <c r="G52">
+        <f>(E52-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>2206.8</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53">
+        <v>310</v>
+      </c>
+      <c r="G53">
+        <f>(E53-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>2199.6</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54">
+        <v>315</v>
+      </c>
+      <c r="G54">
+        <f>(E54-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>2192.4</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55">
+        <v>320</v>
+      </c>
+      <c r="G55">
+        <f>(E55-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>3241.2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56">
+        <v>325</v>
+      </c>
+      <c r="G56" t="e">
+        <f>(E56-A56)*(B57-B56)/(A57-A56)+B56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57">
+        <v>330</v>
+      </c>
+      <c r="G57" t="e">
+        <f>(E57-A56)*(B57-B56)/(A57-A56)+B56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58">
+        <v>335</v>
+      </c>
+      <c r="G58" t="e">
+        <f>(E58-A56)*(B57-B56)/(A57-A56)+B56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59">
+        <v>340</v>
+      </c>
+      <c r="G59" t="e">
+        <f>(E59-A56)*(B57-B56)/(A57-A56)+B56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60">
+        <v>345</v>
+      </c>
+      <c r="G60" t="e">
+        <f>(E60-A56)*(B57-B56)/(A57-A56)+B56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61">
+        <v>350</v>
+      </c>
+      <c r="G61" t="e">
+        <f>(E61-A57)*(B58-B57)/(A58-A57)+B57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62">
+        <v>355</v>
+      </c>
+      <c r="G62" t="e">
+        <f>(E62-A57)*(B58-B57)/(A58-A57)+B57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63">
+        <v>360</v>
+      </c>
+      <c r="G63" t="e">
+        <f>(E63-A57)*(B58-B57)/(A58-A57)+B57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64">
+        <v>365</v>
+      </c>
+      <c r="G64" t="e">
+        <f>(E64-A57)*(B58-B57)/(A58-A57)+B57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65">
+        <v>370</v>
+      </c>
+      <c r="G65" t="e">
+        <f>(E65-A57)*(B58-B57)/(A58-A57)+B57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66">
+        <v>375</v>
+      </c>
+      <c r="G66" t="e">
+        <f>(E66-A58)*(B59-B58)/(A59-A58)+B58</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67">
+        <v>380</v>
+      </c>
+      <c r="G67" t="e">
+        <f>(E67-A67)*(B68-B67)/(A68-A67)+B67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68">
+        <v>385</v>
+      </c>
+      <c r="G68" t="e">
+        <f>(E68-A67)*(B68-B67)/(A68-A67)+B67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69">
+        <v>390</v>
+      </c>
+      <c r="G69" t="e">
+        <f>(E69-A67)*(B68-B67)/(A68-A67)+B67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70">
+        <v>395</v>
+      </c>
+      <c r="G70" t="e">
+        <f>(E70-A67)*(B68-B67)/(A68-A67)+B67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71">
+        <v>400</v>
+      </c>
+      <c r="G71" t="e">
+        <f>(E71-A67)*(B68-B67)/(A68-A67)+B67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72">
+        <v>405</v>
+      </c>
+      <c r="G72" t="e">
+        <f>(E72-A68)*(B69-B68)/(A69-A68)+B68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73">
+        <v>410</v>
+      </c>
+      <c r="G73" t="e">
+        <f>(E73-A68)*(B69-B68)/(A69-A68)+B68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74">
+        <v>415</v>
+      </c>
+      <c r="G74" t="e">
+        <f>(E74-A68)*(B69-B68)/(A69-A68)+B68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75">
+        <v>420</v>
+      </c>
+      <c r="G75" t="e">
+        <f>(E75-A68)*(B69-B68)/(A69-A68)+B68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76">
+        <v>425</v>
+      </c>
+      <c r="G76" t="e">
+        <f>(E76-A68)*(B69-B68)/(A69-A68)+B68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77">
+        <v>430</v>
+      </c>
+      <c r="G77" t="e">
+        <f>(E77-A69)*(B70-B69)/(A70-A69)+B69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78">
+        <v>435</v>
+      </c>
+      <c r="G78" t="e">
+        <f>(E78-A78)*(B79-B78)/(A79-A78)+B78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79">
+        <v>440</v>
+      </c>
+      <c r="G79" t="e">
+        <f>(E79-A78)*(B79-B78)/(A79-A78)+B78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80">
+        <v>445</v>
+      </c>
+      <c r="G80" t="e">
+        <f>(E80-A78)*(B79-B78)/(A79-A78)+B78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81">
+        <v>450</v>
+      </c>
+      <c r="G81" t="e">
+        <f>(E81-A78)*(B79-B78)/(A79-A78)+B78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82">
+        <v>455</v>
+      </c>
+      <c r="G82" t="e">
+        <f>(E82-A78)*(B79-B78)/(A79-A78)+B78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83">
+        <v>460</v>
+      </c>
+      <c r="G83" t="e">
+        <f>(E83-A79)*(B80-B79)/(A80-A79)+B79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84">
+        <v>465</v>
+      </c>
+      <c r="G84" t="e">
+        <f>(E84-A79)*(B80-B79)/(A80-A79)+B79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85">
+        <v>470</v>
+      </c>
+      <c r="G85" t="e">
+        <f>(E85-A79)*(B80-B79)/(A80-A79)+B79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86">
+        <v>475</v>
+      </c>
+      <c r="G86" t="e">
+        <f>(E86-A79)*(B80-B79)/(A80-A79)+B79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="E87">
+        <v>480</v>
+      </c>
+      <c r="G87" t="e">
+        <f>(E87-A79)*(B80-B79)/(A80-A79)+B79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88">
+        <v>485</v>
+      </c>
+      <c r="G88" t="e">
+        <f>(E88-A80)*(B81-B80)/(A81-A80)+B80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89">
+        <v>490</v>
+      </c>
+      <c r="G89" t="e">
+        <f>(E89-A89)*(B90-B89)/(A90-A89)+B89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90">
+        <v>495</v>
+      </c>
+      <c r="G90" t="e">
+        <f>(E90-A89)*(B90-B89)/(A90-A89)+B89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="G91" t="e">
+        <f>(E91-A89)*(B90-B89)/(A90-A89)+B89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92">
+        <v>505</v>
+      </c>
+      <c r="G92" t="e">
+        <f>(E92-A89)*(B90-B89)/(A90-A89)+B89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93">
+        <v>510</v>
+      </c>
+      <c r="G93" t="e">
+        <f>(E93-A89)*(B90-B89)/(A90-A89)+B89</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94">
+        <v>515</v>
+      </c>
+      <c r="G94" t="e">
+        <f>(E94-A90)*(B91-B90)/(A91-A90)+B90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95">
+        <v>520</v>
+      </c>
+      <c r="G95" t="e">
+        <f>(E95-A90)*(B91-B90)/(A91-A90)+B90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96">
+        <v>525</v>
+      </c>
+      <c r="G96" t="e">
+        <f>(E96-A90)*(B91-B90)/(A91-A90)+B90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97">
+        <v>530</v>
+      </c>
+      <c r="G97" t="e">
+        <f>(E97-A90)*(B91-B90)/(A91-A90)+B90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98">
+        <v>535</v>
+      </c>
+      <c r="G98" t="e">
+        <f>(E98-A90)*(B91-B90)/(A91-A90)+B90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99">
+        <v>540</v>
+      </c>
+      <c r="G99" t="e">
+        <f>(E99-A91)*(B92-B91)/(A92-A91)+B91</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100">
+        <v>545</v>
+      </c>
+      <c r="G100" t="e">
+        <f>(E100-A100)*(B101-B100)/(A101-A100)+B100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101">
+        <v>550</v>
+      </c>
+      <c r="G101" t="e">
+        <f>(E101-A100)*(B101-B100)/(A101-A100)+B100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102">
+        <v>555</v>
+      </c>
+      <c r="G102" t="e">
+        <f>(E102-A100)*(B101-B100)/(A101-A100)+B100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103">
+        <v>560</v>
+      </c>
+      <c r="G103" t="e">
+        <f>(E103-A100)*(B101-B100)/(A101-A100)+B100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
+      <c r="E104">
+        <v>565</v>
+      </c>
+      <c r="G104" t="e">
+        <f>(E104-A100)*(B101-B100)/(A101-A100)+B100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7">
+      <c r="E105">
+        <v>570</v>
+      </c>
+      <c r="G105" t="e">
+        <f>(E105-A101)*(B102-B101)/(A102-A101)+B101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7">
+      <c r="E106">
+        <v>575</v>
+      </c>
+      <c r="G106" t="e">
+        <f>(E106-A101)*(B102-B101)/(A102-A101)+B101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7">
+      <c r="E107">
+        <v>580</v>
+      </c>
+      <c r="G107" t="e">
+        <f>(E107-A101)*(B102-B101)/(A102-A101)+B101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108">
+        <v>585</v>
+      </c>
+      <c r="G108" t="e">
+        <f>(E108-A101)*(B102-B101)/(A102-A101)+B101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109">
+        <v>590</v>
+      </c>
+      <c r="G109" t="e">
+        <f>(E109-A101)*(B102-B101)/(A102-A101)+B101</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110">
+        <v>595</v>
+      </c>
+      <c r="G110" t="e">
+        <f>(E110-A102)*(B103-B102)/(A103-A102)+B102</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111">
+        <v>600</v>
+      </c>
+      <c r="G111" t="e">
+        <f>(E111-A111)*(B112-B111)/(A112-A111)+B111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112">
+        <v>605</v>
+      </c>
+      <c r="G112" t="e">
+        <f>(E112-A111)*(B112-B111)/(A112-A111)+B111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7">
+      <c r="E113">
+        <v>610</v>
+      </c>
+      <c r="G113" t="e">
+        <f>(E113-A111)*(B112-B111)/(A112-A111)+B111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7">
+      <c r="E114">
+        <v>615</v>
+      </c>
+      <c r="G114" t="e">
+        <f>(E114-A111)*(B112-B111)/(A112-A111)+B111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115">
+        <v>620</v>
+      </c>
+      <c r="G115" t="e">
+        <f>(E115-A111)*(B112-B111)/(A112-A111)+B111</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7">
+      <c r="E116">
+        <v>625</v>
+      </c>
+      <c r="G116" t="e">
+        <f>(E116-A112)*(B113-B112)/(A113-A112)+B112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7">
+      <c r="E117">
+        <v>630</v>
+      </c>
+      <c r="G117" t="e">
+        <f>(E117-A112)*(B113-B112)/(A113-A112)+B112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118">
+        <v>635</v>
+      </c>
+      <c r="G118" t="e">
+        <f>(E118-A112)*(B113-B112)/(A113-A112)+B112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7">
+      <c r="E119">
+        <v>640</v>
+      </c>
+      <c r="G119" t="e">
+        <f>(E119-A112)*(B113-B112)/(A113-A112)+B112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120">
+        <v>645</v>
+      </c>
+      <c r="G120" t="e">
+        <f>(E120-A112)*(B113-B112)/(A113-A112)+B112</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121">
+        <v>650</v>
+      </c>
+      <c r="G121" t="e">
+        <f>(E121-A113)*(B114-B113)/(A114-A113)+B113</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122">
+        <v>655</v>
+      </c>
+      <c r="G122" t="e">
+        <f>(E122-A122)*(B123-B122)/(A123-A122)+B122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123">
+        <v>660</v>
+      </c>
+      <c r="G123" t="e">
+        <f>(E123-A122)*(B123-B122)/(A123-A122)+B122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124">
+        <v>665</v>
+      </c>
+      <c r="G124" t="e">
+        <f>(E124-A122)*(B123-B122)/(A123-A122)+B122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125">
+        <v>670</v>
+      </c>
+      <c r="G125" t="e">
+        <f>(E125-A122)*(B123-B122)/(A123-A122)+B122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7">
+      <c r="E126">
+        <v>675</v>
+      </c>
+      <c r="G126" t="e">
+        <f>(E126-A122)*(B123-B122)/(A123-A122)+B122</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127">
+        <v>680</v>
+      </c>
+      <c r="G127" t="e">
+        <f>(E127-A123)*(B124-B123)/(A124-A123)+B123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7">
+      <c r="E128">
+        <v>685</v>
+      </c>
+      <c r="G128" t="e">
+        <f>(E128-A123)*(B124-B123)/(A124-A123)+B123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7">
+      <c r="E129">
+        <v>690</v>
+      </c>
+      <c r="G129" t="e">
+        <f>(E129-A123)*(B124-B123)/(A124-A123)+B123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7">
+      <c r="E130">
+        <v>695</v>
+      </c>
+      <c r="G130" t="e">
+        <f>(E130-A123)*(B124-B123)/(A124-A123)+B123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131">
+        <v>700</v>
+      </c>
+      <c r="G131" t="e">
+        <f>(E131-A123)*(B124-B123)/(A124-A123)+B123</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132">
+        <v>705</v>
+      </c>
+      <c r="G132" t="e">
+        <f>(E132-A124)*(B125-B124)/(A125-A124)+B124</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7">
+      <c r="E133">
+        <v>710</v>
+      </c>
+      <c r="G133" t="e">
+        <f>(E133-A133)*(B134-B133)/(A134-A133)+B133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7">
+      <c r="E134">
+        <v>715</v>
+      </c>
+      <c r="G134" t="e">
+        <f>(E134-A133)*(B134-B133)/(A134-A133)+B133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7">
+      <c r="E135">
+        <v>720</v>
+      </c>
+      <c r="G135" t="e">
+        <f>(E135-A133)*(B134-B133)/(A134-A133)+B133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7">
+      <c r="E136">
+        <v>725</v>
+      </c>
+      <c r="G136" t="e">
+        <f>(E136-A133)*(B134-B133)/(A134-A133)+B133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7">
+      <c r="E137">
+        <v>730</v>
+      </c>
+      <c r="G137" t="e">
+        <f>(E137-A133)*(B134-B133)/(A134-A133)+B133</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7">
+      <c r="E138">
+        <v>735</v>
+      </c>
+      <c r="G138" t="e">
+        <f>(E138-A134)*(B135-B134)/(A135-A134)+B134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="E139">
+        <v>740</v>
+      </c>
+      <c r="G139" t="e">
+        <f>(E139-A134)*(B135-B134)/(A135-A134)+B134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7">
+      <c r="E140">
+        <v>745</v>
+      </c>
+      <c r="G140" t="e">
+        <f>(E140-A134)*(B135-B134)/(A135-A134)+B134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7">
+      <c r="E141">
+        <v>750</v>
+      </c>
+      <c r="G141" t="e">
+        <f>(E141-A134)*(B135-B134)/(A135-A134)+B134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142">
+        <v>755</v>
+      </c>
+      <c r="G142" t="e">
+        <f>(E142-A134)*(B135-B134)/(A135-A134)+B134</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="E143">
+        <v>760</v>
+      </c>
+      <c r="G143" t="e">
+        <f>(E143-A135)*(B136-B135)/(A136-A135)+B135</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="E144">
+        <v>765</v>
+      </c>
+      <c r="G144" t="e">
+        <f>(E144-A144)*(B145-B144)/(A145-A144)+B144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145">
+        <v>770</v>
+      </c>
+      <c r="G145" t="e">
+        <f>(E145-A144)*(B145-B144)/(A145-A144)+B144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146">
+        <v>775</v>
+      </c>
+      <c r="G146" t="e">
+        <f>(E146-A144)*(B145-B144)/(A145-A144)+B144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147">
+        <v>780</v>
+      </c>
+      <c r="G147" t="e">
+        <f>(E147-A144)*(B145-B144)/(A145-A144)+B144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148">
+        <v>785</v>
+      </c>
+      <c r="G148" t="e">
+        <f>(E148-A144)*(B145-B144)/(A145-A144)+B144</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149">
+        <v>790</v>
+      </c>
+      <c r="G149" t="e">
+        <f>(E149-A145)*(B146-B145)/(A146-A145)+B145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7">
+      <c r="E150">
+        <v>795</v>
+      </c>
+      <c r="G150" t="e">
+        <f>(E150-A145)*(B146-B145)/(A146-A145)+B145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7">
+      <c r="E151">
+        <v>800</v>
+      </c>
+      <c r="G151" t="e">
+        <f>(E151-A145)*(B146-B145)/(A146-A145)+B145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7">
+      <c r="E152">
+        <v>805</v>
+      </c>
+      <c r="G152" t="e">
+        <f>(E152-A145)*(B146-B145)/(A146-A145)+B145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7">
+      <c r="E153">
+        <v>810</v>
+      </c>
+      <c r="G153" t="e">
+        <f>(E153-A145)*(B146-B145)/(A146-A145)+B145</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7">
+      <c r="E154">
+        <v>815</v>
+      </c>
+      <c r="G154" t="e">
+        <f>(E154-A146)*(B147-B146)/(A147-A146)+B146</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155">
+        <v>820</v>
+      </c>
+      <c r="G155" t="e">
+        <f>(E155-A155)*(B156-B155)/(A156-A155)+B155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156">
+        <v>825</v>
+      </c>
+      <c r="G156" t="e">
+        <f>(E156-A155)*(B156-B155)/(A156-A155)+B155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7">
+      <c r="E157">
+        <v>830</v>
+      </c>
+      <c r="G157" t="e">
+        <f>(E157-A155)*(B156-B155)/(A156-A155)+B155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7">
+      <c r="E158">
+        <v>835</v>
+      </c>
+      <c r="G158" t="e">
+        <f>(E158-A155)*(B156-B155)/(A156-A155)+B155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159">
+        <v>840</v>
+      </c>
+      <c r="G159" t="e">
+        <f>(E159-A155)*(B156-B155)/(A156-A155)+B155</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160">
+        <v>845</v>
+      </c>
+      <c r="G160" t="e">
+        <f>(E160-A156)*(B157-B156)/(A157-A156)+B156</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7">
+      <c r="E161">
+        <v>850</v>
+      </c>
+      <c r="G161" t="e">
+        <f>(E161-A156)*(B157-B156)/(A157-A156)+B156</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162">
+        <v>855</v>
+      </c>
+      <c r="G162" t="e">
+        <f>(E162-A156)*(B157-B156)/(A157-A156)+B156</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163">
+        <v>860</v>
+      </c>
+      <c r="G163" t="e">
+        <f>(E163-A156)*(B157-B156)/(A157-A156)+B156</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="E164">
+        <v>865</v>
+      </c>
+      <c r="G164" t="e">
+        <f>(E164-A156)*(B157-B156)/(A157-A156)+B156</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165">
+        <v>870</v>
+      </c>
+      <c r="G165" t="e">
+        <f>(E165-A157)*(B158-B157)/(A158-A157)+B157</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="E166">
+        <v>875</v>
+      </c>
+      <c r="G166" t="e">
+        <f>(E166-A166)*(B167-B166)/(A167-A166)+B166</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="E167">
+        <v>880</v>
+      </c>
+      <c r="G167" t="e">
+        <f>(E167-A166)*(B167-B166)/(A167-A166)+B166</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168">
+        <v>885</v>
+      </c>
+      <c r="G168" t="e">
+        <f>(E168-A166)*(B167-B166)/(A167-A166)+B166</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="E169">
+        <v>890</v>
+      </c>
+      <c r="G169" t="e">
+        <f>(E169-A166)*(B167-B166)/(A167-A166)+B166</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="E170">
+        <v>895</v>
+      </c>
+      <c r="G170" t="e">
+        <f>(E170-A166)*(B167-B166)/(A167-A166)+B166</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171">
+        <v>900</v>
+      </c>
+      <c r="G171" t="e">
+        <f>(E171-A167)*(B168-B167)/(A168-A167)+B167</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="E172">
+        <v>905</v>
+      </c>
+      <c r="G172" t="e">
+        <f>(E172-A167)*(B168-B167)/(A168-A167)+B167</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="E173">
+        <v>910</v>
+      </c>
+      <c r="G173" t="e">
+        <f>(E173-A167)*(B168-B167)/(A168-A167)+B167</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="E174">
+        <v>915</v>
+      </c>
+      <c r="G174" t="e">
+        <f>(E174-A167)*(B168-B167)/(A168-A167)+B167</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7">
+      <c r="E175">
+        <v>920</v>
+      </c>
+      <c r="G175" t="e">
+        <f>(E175-A167)*(B168-B167)/(A168-A167)+B167</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="E176">
+        <v>925</v>
+      </c>
+      <c r="G176" t="e">
+        <f>(E176-A168)*(B169-B168)/(A169-A168)+B168</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="E177">
+        <v>930</v>
+      </c>
+      <c r="G177" t="e">
+        <f>(E177-A177)*(B178-B177)/(A178-A177)+B177</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7">
+      <c r="E178">
+        <v>935</v>
+      </c>
+      <c r="G178" t="e">
+        <f>(E178-A177)*(B178-B177)/(A178-A177)+B177</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7">
+      <c r="E179">
+        <v>940</v>
+      </c>
+      <c r="G179" t="e">
+        <f>(E179-A177)*(B178-B177)/(A178-A177)+B177</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7">
+      <c r="E180">
+        <v>945</v>
+      </c>
+      <c r="G180" t="e">
+        <f>(E180-A177)*(B178-B177)/(A178-A177)+B177</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7">
+      <c r="E181">
+        <v>950</v>
+      </c>
+      <c r="G181" t="e">
+        <f>(E181-A177)*(B178-B177)/(A178-A177)+B177</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7">
+      <c r="E182">
+        <v>955</v>
+      </c>
+      <c r="G182" t="e">
+        <f>(E182-A178)*(B179-B178)/(A179-A178)+B178</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7">
+      <c r="E183">
+        <v>960</v>
+      </c>
+      <c r="G183" t="e">
+        <f>(E183-A178)*(B179-B178)/(A179-A178)+B178</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7">
+      <c r="E184">
+        <v>965</v>
+      </c>
+      <c r="G184" t="e">
+        <f>(E184-A178)*(B179-B178)/(A179-A178)+B178</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7">
+      <c r="E185">
+        <v>970</v>
+      </c>
+      <c r="G185" t="e">
+        <f>(E185-A178)*(B179-B178)/(A179-A178)+B178</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7">
+      <c r="E186">
+        <v>975</v>
+      </c>
+      <c r="G186" t="e">
+        <f>(E186-A178)*(B179-B178)/(A179-A178)+B178</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7">
+      <c r="E187">
+        <v>980</v>
+      </c>
+      <c r="G187" t="e">
+        <f>(E187-A179)*(B180-B179)/(A180-A179)+B179</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7">
+      <c r="E188">
+        <v>985</v>
+      </c>
+      <c r="G188" t="e">
+        <f>(E188-A188)*(B189-B188)/(A189-A188)+B188</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7">
+      <c r="E189">
+        <v>990</v>
+      </c>
+      <c r="G189" t="e">
+        <f>(E189-A188)*(B189-B188)/(A189-A188)+B188</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7">
+      <c r="E190">
+        <v>995</v>
+      </c>
+      <c r="G190" t="e">
+        <f>(E190-A188)*(B189-B188)/(A189-A188)+B188</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7">
+      <c r="E191">
+        <v>1000</v>
+      </c>
+      <c r="G191" t="e">
+        <f>(E191-A188)*(B189-B188)/(A189-A188)+B188</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7">
+      <c r="E192">
+        <v>1005</v>
+      </c>
+      <c r="G192" t="e">
+        <f>(E192-A188)*(B189-B188)/(A189-A188)+B188</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7">
+      <c r="E193">
+        <v>1010</v>
+      </c>
+      <c r="G193" t="e">
+        <f>(E193-A189)*(B190-B189)/(A190-A189)+B189</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7">
+      <c r="E194">
+        <v>1015</v>
+      </c>
+      <c r="G194" t="e">
+        <f>(E194-A189)*(B190-B189)/(A190-A189)+B189</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="5:7">
+      <c r="E195">
+        <v>1020</v>
+      </c>
+      <c r="G195" t="e">
+        <f>(E195-A189)*(B190-B189)/(A190-A189)+B189</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7">
+      <c r="E196">
+        <v>1025</v>
+      </c>
+      <c r="G196" t="e">
+        <f>(E196-A189)*(B190-B189)/(A190-A189)+B189</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7">
+      <c r="E197">
+        <v>1030</v>
+      </c>
+      <c r="G197" t="e">
+        <f>(E197-A189)*(B190-B189)/(A190-A189)+B189</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7">
+      <c r="E198">
+        <v>1035</v>
+      </c>
+      <c r="G198" t="e">
+        <f>(E198-A190)*(B191-B190)/(A191-A190)+B190</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7">
+      <c r="E199">
+        <v>1040</v>
+      </c>
+      <c r="G199" t="e">
+        <f>(E199-A199)*(B200-B199)/(A200-A199)+B199</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="5:7">
+      <c r="E200">
+        <v>1045</v>
+      </c>
+      <c r="G200" t="e">
+        <f>(E200-A199)*(B200-B199)/(A200-A199)+B199</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7">
+      <c r="E201">
+        <v>1050</v>
+      </c>
+      <c r="G201" t="e">
+        <f>(E201-A199)*(B200-B199)/(A200-A199)+B199</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7">
+      <c r="E202">
+        <v>1055</v>
+      </c>
+      <c r="G202" t="e">
+        <f>(E202-A199)*(B200-B199)/(A200-A199)+B199</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7">
+      <c r="E203">
+        <v>1060</v>
+      </c>
+      <c r="G203" t="e">
+        <f>(E203-A199)*(B200-B199)/(A200-A199)+B199</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7">
+      <c r="E204">
+        <v>1065</v>
+      </c>
+      <c r="G204" t="e">
+        <f>(E204-A200)*(B201-B200)/(A201-A200)+B200</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7">
+      <c r="E205">
+        <v>1070</v>
+      </c>
+      <c r="G205" t="e">
+        <f>(E205-A200)*(B201-B200)/(A201-A200)+B200</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7">
+      <c r="E206">
+        <v>1075</v>
+      </c>
+      <c r="G206" t="e">
+        <f>(E206-A200)*(B201-B200)/(A201-A200)+B200</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7">
+      <c r="E207">
+        <v>1080</v>
+      </c>
+      <c r="G207" t="e">
+        <f>(E207-A200)*(B201-B200)/(A201-A200)+B200</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7">
+      <c r="E208">
+        <v>1085</v>
+      </c>
+      <c r="G208" t="e">
+        <f>(E208-A200)*(B201-B200)/(A201-A200)+B200</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7">
+      <c r="E209">
+        <v>1090</v>
+      </c>
+      <c r="G209" t="e">
+        <f>(E209-A201)*(B202-B201)/(A202-A201)+B201</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7">
+      <c r="E210">
+        <v>1095</v>
+      </c>
+      <c r="G210" t="e">
+        <f>(E210-A210)*(B211-B210)/(A211-A210)+B210</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7">
+      <c r="E211">
+        <v>1100</v>
+      </c>
+      <c r="G211" t="e">
+        <f>(E211-A210)*(B211-B210)/(A211-A210)+B210</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7">
+      <c r="E212">
+        <v>1105</v>
+      </c>
+      <c r="G212" t="e">
+        <f>(E212-A210)*(B211-B210)/(A211-A210)+B210</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7">
+      <c r="E213">
+        <v>1110</v>
+      </c>
+      <c r="G213" t="e">
+        <f>(E213-A210)*(B211-B210)/(A211-A210)+B210</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7">
+      <c r="E214">
+        <v>1115</v>
+      </c>
+      <c r="G214" t="e">
+        <f>(E214-A210)*(B211-B210)/(A211-A210)+B210</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7">
+      <c r="E215">
+        <v>1120</v>
+      </c>
+      <c r="G215" t="e">
+        <f>(E215-A211)*(B212-B211)/(A212-A211)+B211</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7">
+      <c r="E216">
+        <v>1125</v>
+      </c>
+      <c r="G216" t="e">
+        <f>(E216-A211)*(B212-B211)/(A212-A211)+B211</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7">
+      <c r="E217">
+        <v>1130</v>
+      </c>
+      <c r="G217" t="e">
+        <f>(E217-A211)*(B212-B211)/(A212-A211)+B211</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7">
+      <c r="E218">
+        <v>1135</v>
+      </c>
+      <c r="G218" t="e">
+        <f>(E218-A211)*(B212-B211)/(A212-A211)+B211</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7">
+      <c r="E219">
+        <v>1140</v>
+      </c>
+      <c r="G219" t="e">
+        <f>(E219-A211)*(B212-B211)/(A212-A211)+B211</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7">
+      <c r="E220">
+        <v>1145</v>
+      </c>
+      <c r="G220">
+        <f>(E220-A44)*(B45-B44)/(A45-A44)+B44</f>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7">
+      <c r="E221">
+        <v>1150</v>
+      </c>
+      <c r="G221">
+        <f>(E221-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7">
+      <c r="E222">
+        <v>1155</v>
+      </c>
+      <c r="G222">
+        <f>(E222-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>981.2</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7">
+      <c r="E223">
+        <v>1160</v>
+      </c>
+      <c r="G223">
+        <f>(E223-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>974.4</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7">
+      <c r="E224">
+        <v>1165</v>
+      </c>
+      <c r="G224">
+        <f>(E224-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>967.6</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7">
+      <c r="E225">
+        <v>1170</v>
+      </c>
+      <c r="G225">
+        <f>(E225-A45)*(B46-B45)/(A46-A45)+B45</f>
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7">
+      <c r="E226">
+        <v>1175</v>
+      </c>
+      <c r="G226">
+        <f>(E226-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7">
+      <c r="E227">
+        <v>1180</v>
+      </c>
+      <c r="G227">
+        <f>(E227-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>946.8</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7">
+      <c r="E228">
+        <v>1185</v>
+      </c>
+      <c r="G228">
+        <f>(E228-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>939.6</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7">
+      <c r="E229">
+        <v>1190</v>
+      </c>
+      <c r="G229">
+        <f>(E229-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>932.4</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7">
+      <c r="E230">
+        <v>1195</v>
+      </c>
+      <c r="G230">
+        <f>(E230-A46)*(B47-B46)/(A47-A46)+B46</f>
+        <v>925.2</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7">
+      <c r="E231">
+        <v>1200</v>
+      </c>
+      <c r="G231">
+        <f>(E231-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7">
+      <c r="E232">
+        <v>1205</v>
+      </c>
+      <c r="G232">
+        <f>(E232-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>904.8</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7">
+      <c r="E233">
+        <v>1210</v>
+      </c>
+      <c r="G233">
+        <f>(E233-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>891.6</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7">
+      <c r="E234">
+        <v>1215</v>
+      </c>
+      <c r="G234">
+        <f>(E234-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>878.4</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7">
+      <c r="E235">
+        <v>1220</v>
+      </c>
+      <c r="G235">
+        <f>(E235-A47)*(B48-B47)/(A48-A47)+B47</f>
+        <v>865.2</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7">
+      <c r="E236">
+        <v>1225</v>
+      </c>
+      <c r="G236">
+        <f>(E236-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="237" spans="5:7">
+      <c r="E237">
+        <v>1230</v>
+      </c>
+      <c r="G237">
+        <f>(E237-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>841.6</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7">
+      <c r="E238">
+        <v>1235</v>
+      </c>
+      <c r="G238">
+        <f>(E238-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>831.2</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7">
+      <c r="E239">
+        <v>1240</v>
+      </c>
+      <c r="G239">
+        <f>(E239-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>820.8</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7">
+      <c r="E240">
+        <v>1245</v>
+      </c>
+      <c r="G240">
+        <f>(E240-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>810.4</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7">
+      <c r="E241">
+        <v>1250</v>
+      </c>
+      <c r="G241">
+        <f>(E241-A48)*(B49-B48)/(A49-A48)+B48</f>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +7505,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3953,6 +7514,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
